--- a/benchmark/mwm_general/complete_graphs/mn_log_n.xlsx
+++ b/benchmark/mwm_general/complete_graphs/mn_log_n.xlsx
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="D301" sqref="D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2622,7 +2622,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B150" si="6">(POWER(A131,2) + A131) / 2</f>
+        <f t="shared" ref="B131:B194" si="6">(POWER(A131,2) + A131) / 2</f>
         <v>8646</v>
       </c>
       <c r="C131">
@@ -2957,11 +2957,2559 @@
         <v>8511816.7058460135</v>
       </c>
     </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="6"/>
+        <v>11476</v>
+      </c>
+      <c r="C151">
+        <f t="shared" ref="C151" si="9">LN(A151)</f>
+        <v>5.0172798368149243</v>
+      </c>
+      <c r="D151">
+        <f t="shared" ref="D151" si="10">A151 * B151 * C151</f>
+        <v>8694323.8145004995</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="6"/>
+        <v>11628</v>
+      </c>
+      <c r="C152">
+        <f t="shared" ref="C152:C215" si="11">LN(A152)</f>
+        <v>5.0238805208462765</v>
+      </c>
+      <c r="D152">
+        <f t="shared" ref="D152:D215" si="12">A152 * B152 * C152</f>
+        <v>8879487.7698528767</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="6"/>
+        <v>11781</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="11"/>
+        <v>5.0304379213924353</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="12"/>
+        <v>9067329.140244415</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="6"/>
+        <v>11935</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="11"/>
+        <v>5.0369526024136295</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="12"/>
+        <v>9257868.5137102269</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="6"/>
+        <v>12090</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="11"/>
+        <v>5.0434251169192468</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="12"/>
+        <v>9451126.4978508223</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="6"/>
+        <v>12246</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="11"/>
+        <v>5.0498560072495371</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="12"/>
+        <v>9647123.7197053414</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="6"/>
+        <v>12403</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="11"/>
+        <v>5.0562458053483077</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="12"/>
+        <v>9845880.825626405</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="6"/>
+        <v>12561</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="11"/>
+        <v>5.0625950330269669</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="12"/>
+        <v>10047418.481156573</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="6"/>
+        <v>12720</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="11"/>
+        <v>5.0689042022202315</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="12"/>
+        <v>10251757.370906373</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="6"/>
+        <v>12880</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="11"/>
+        <v>5.0751738152338266</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="12"/>
+        <v>10458918.19843387</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="6"/>
+        <v>13041</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="11"/>
+        <v>5.0814043649844631</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="12"/>
+        <v>10668921.686125744</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="6"/>
+        <v>13203</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="11"/>
+        <v>5.0875963352323836</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="12"/>
+        <v>10881788.575079853</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="6"/>
+        <v>13366</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="11"/>
+        <v>5.0937502008067623</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="12"/>
+        <v>11097539.62498926</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="6"/>
+        <v>13530</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="11"/>
+        <v>5.0998664278241987</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="12"/>
+        <v>11316195.614027672</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="6"/>
+        <v>13695</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="11"/>
+        <v>5.1059454739005803</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="12"/>
+        <v>11537777.338736294</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="6"/>
+        <v>13861</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="11"/>
+        <v>5.1119877883565437</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="12"/>
+        <v>11762305.613912068</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="6"/>
+        <v>14028</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="11"/>
+        <v>5.1179938124167554</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="12"/>
+        <v>11989801.272497235</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="6"/>
+        <v>14196</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="11"/>
+        <v>5.1239639794032588</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="12"/>
+        <v>12220285.165470256</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="6"/>
+        <v>14365</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="11"/>
+        <v>5.1298987149230735</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="12"/>
+        <v>12453778.161738021</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="6"/>
+        <v>14535</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="11"/>
+        <v>5.1357984370502621</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="12"/>
+        <v>12690301.148029344</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="6"/>
+        <v>14706</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="11"/>
+        <v>5.1416635565026603</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="12"/>
+        <v>12929875.028789708</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="6"/>
+        <v>14878</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="11"/>
+        <v>5.1474944768134527</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="12"/>
+        <v>13172520.726077255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="6"/>
+        <v>15051</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="11"/>
+        <v>5.1532915944977793</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="12"/>
+        <v>13418259.179459991</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="6"/>
+        <v>15225</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="11"/>
+        <v>5.1590552992145291</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="12"/>
+        <v>13667111.34591417</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="6"/>
+        <v>15400</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="11"/>
+        <v>5.1647859739235145</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="12"/>
+        <v>13919098.199723871</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="6"/>
+        <v>15576</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="11"/>
+        <v>5.1704839950381514</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="12"/>
+        <v>14174240.732381707</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="6"/>
+        <v>15753</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="11"/>
+        <v>5.1761497325738288</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="12"/>
+        <v>14432559.952490687</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="6"/>
+        <v>15931</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="11"/>
+        <v>5.181783550292085</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="12"/>
+        <v>14694076.885667171</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="6"/>
+        <v>16110</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="11"/>
+        <v>5.1873858058407549</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="12"/>
+        <v>14958812.574444927</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="6"/>
+        <v>16290</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="11"/>
+        <v>5.1929568508902104</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="12"/>
+        <v>15226788.078180276</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="6"/>
+        <v>16471</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="11"/>
+        <v>5.1984970312658261</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="12"/>
+        <v>15498024.472958276</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="6"/>
+        <v>16653</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="11"/>
+        <v>5.2040066870767951</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="12"/>
+        <v>15772542.851499956</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="6"/>
+        <v>16836</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="11"/>
+        <v>5.2094861528414214</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="12"/>
+        <v>16050364.323070586</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="6"/>
+        <v>17020</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="11"/>
+        <v>5.2149357576089859</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="12"/>
+        <v>16331510.013388909</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="6"/>
+        <v>17205</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="11"/>
+        <v>5.2203558250783244</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="12"/>
+        <v>16616001.064537426</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="6"/>
+        <v>17391</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="11"/>
+        <v>5.2257466737132017</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="12"/>
+        <v>16903858.63487361</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="6"/>
+        <v>17578</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="11"/>
+        <v>5.2311086168545868</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="12"/>
+        <v>17195103.898942076</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="6"/>
+        <v>17766</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="11"/>
+        <v>5.2364419628299492</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="12"/>
+        <v>17489758.047387734</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="6"/>
+        <v>17955</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="11"/>
+        <v>5.2417470150596426</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="12"/>
+        <v>17787842.28686982</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="6"/>
+        <v>18145</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="11"/>
+        <v>5.2470240721604862</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="12"/>
+        <v>18089377.839976884</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="6"/>
+        <v>18336</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="11"/>
+        <v>5.2522734280466299</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="12"/>
+        <v>18394385.945142634</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="6"/>
+        <v>18528</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="11"/>
+        <v>5.2574953720277815</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="12"/>
+        <v>18702887.8565627</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="6"/>
+        <v>18721</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="11"/>
+        <v>5.2626901889048856</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="12"/>
+        <v>19014904.844112255</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="6"/>
+        <v>18915</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="11"/>
+        <v>5.2678581590633282</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="12"/>
+        <v>19330458.193264473</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <f t="shared" ref="B195:B258" si="13">(POWER(A195,2) + A195) / 2</f>
+        <v>19110</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="11"/>
+        <v>5.2729995585637468</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="12"/>
+        <v>19649569.205009874</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="13"/>
+        <v>19306</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="11"/>
+        <v>5.2781146592305168</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="12"/>
+        <v>19972259.195776455</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="13"/>
+        <v>19503</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="11"/>
+        <v>5.2832037287379885</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="12"/>
+        <v>20298549.497350667</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="13"/>
+        <v>19701</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="11"/>
+        <v>5.2882670306945352</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="12"/>
+        <v>20628461.456799183</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="13"/>
+        <v>19900</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="11"/>
+        <v>5.2933048247244923</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="12"/>
+        <v>20962016.436391462</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="13"/>
+        <v>20100</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="11"/>
+        <v>5.2983173665480363</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="12"/>
+        <v>21299235.813523106</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="13"/>
+        <v>20301</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="11"/>
+        <v>5.3033049080590757</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="12"/>
+        <v>21640140.980639968</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="13"/>
+        <v>20503</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="11"/>
+        <v>5.3082676974012051</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="12"/>
+        <v>21984753.345163014</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="13"/>
+        <v>20706</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="11"/>
+        <v>5.3132059790417872</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="12"/>
+        <v>22333094.329413965</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="13"/>
+        <v>20910</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="11"/>
+        <v>5.3181199938442161</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="12"/>
+        <v>22685185.370541643</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="13"/>
+        <v>21115</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="11"/>
+        <v>5.3230099791384085</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="12"/>
+        <v>23041047.920449037</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="13"/>
+        <v>21321</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="11"/>
+        <v>5.3278761687895813</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="12"/>
+        <v>23400703.445721108</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="13"/>
+        <v>21528</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="11"/>
+        <v>5.3327187932653688</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="12"/>
+        <v>23764173.427553289</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="13"/>
+        <v>21736</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="11"/>
+        <v>5.3375380797013179</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="12"/>
+        <v>24131479.361680672</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="13"/>
+        <v>21945</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="11"/>
+        <v>5.3423342519648109</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="12"/>
+        <v>24502642.758307867</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="13"/>
+        <v>22155</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="11"/>
+        <v>5.3471075307174685</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="12"/>
+        <v>24877685.14203956</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="13"/>
+        <v>22366</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="11"/>
+        <v>5.3518581334760666</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="12"/>
+        <v>25256628.051811725</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="13"/>
+        <v>22578</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="11"/>
+        <v>5.3565862746720123</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="12"/>
+        <v>25639493.040823475</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="13"/>
+        <v>22791</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="11"/>
+        <v>5.3612921657094255</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="12"/>
+        <v>26026301.676469591</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="13"/>
+        <v>23005</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="11"/>
+        <v>5.3659760150218512</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="12"/>
+        <v>26417075.540273625</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="13"/>
+        <v>23220</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="11"/>
+        <v>5.3706380281276624</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="12"/>
+        <v>26811836.22782173</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="13"/>
+        <v>23436</v>
+      </c>
+      <c r="C216">
+        <f t="shared" ref="C216:C279" si="14">LN(A216)</f>
+        <v>5.3752784076841653</v>
+      </c>
+      <c r="D216">
+        <f t="shared" ref="D216:D279" si="15">A216 * B216 * C216</f>
+        <v>27210605.348696996</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="13"/>
+        <v>23653</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="14"/>
+        <v>5.3798973535404597</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="15"/>
+        <v>27613404.526414473</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="13"/>
+        <v>23871</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="14"/>
+        <v>5.3844950627890888</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="15"/>
+        <v>28020255.398356758</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="13"/>
+        <v>24090</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="14"/>
+        <v>5.389071729816501</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="15"/>
+        <v>28431179.615710214</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="13"/>
+        <v>24310</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="14"/>
+        <v>5.393627546352362</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="15"/>
+        <v>28846198.843401704</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="13"/>
+        <v>24531</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="14"/>
+        <v>5.3981627015177525</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="15"/>
+        <v>29265334.760035969</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="13"/>
+        <v>24753</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="14"/>
+        <v>5.4026773818722793</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="15"/>
+        <v>29688609.057833567</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="13"/>
+        <v>24976</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="14"/>
+        <v>5.4071717714601188</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="15"/>
+        <v>30116043.442569308</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="13"/>
+        <v>25200</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="14"/>
+        <v>5.4116460518550396</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="15"/>
+        <v>30547659.633511327</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="13"/>
+        <v>25425</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="14"/>
+        <v>5.4161004022044201</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="15"/>
+        <v>30983479.363360662</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="13"/>
+        <v>25651</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="14"/>
+        <v>5.4205349992722862</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="15"/>
+        <v>31423524.378191352</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="13"/>
+        <v>25878</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="14"/>
+        <v>5.4249500174814029</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="15"/>
+        <v>31867816.43739111</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="13"/>
+        <v>26106</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="14"/>
+        <v>5.4293456289544411</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="15"/>
+        <v>32316377.313602496</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="13"/>
+        <v>26335</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="14"/>
+        <v>5.43372200355424</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="15"/>
+        <v>32769228.79266461</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="13"/>
+        <v>26565</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="14"/>
+        <v>5.4380793089231956</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="15"/>
+        <v>33226392.673555277</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="13"/>
+        <v>26796</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="14"/>
+        <v>5.4424177105217932</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="15"/>
+        <v>33687890.768333793</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="13"/>
+        <v>27028</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="14"/>
+        <v>5.4467373716663099</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="15"/>
+        <v>34153744.902084112</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="13"/>
+        <v>27261</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="14"/>
+        <v>5.4510384535657002</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="15"/>
+        <v>34623976.912858509</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="13"/>
+        <v>27495</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="14"/>
+        <v>5.4553211153577017</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="15"/>
+        <v>35098608.651621841</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="13"/>
+        <v>27730</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="14"/>
+        <v>5.4595855141441589</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="15"/>
+        <v>35577661.982196122</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="13"/>
+        <v>27966</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="14"/>
+        <v>5.4638318050256105</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="15"/>
+        <v>36061158.781205706</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="13"/>
+        <v>28203</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="14"/>
+        <v>5.4680601411351315</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="15"/>
+        <v>36549120.938022882</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="13"/>
+        <v>28441</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="14"/>
+        <v>5.472270673671475</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="15"/>
+        <v>37041570.354713917</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="13"/>
+        <v>28680</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="14"/>
+        <v>5.476463551931511</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="15"/>
+        <v>37538528.945985578</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="13"/>
+        <v>28920</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="14"/>
+        <v>5.4806389233419912</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="15"/>
+        <v>38040018.63913209</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="13"/>
+        <v>29161</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="14"/>
+        <v>5.4847969334906548</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="15"/>
+        <v>38546061.373982556</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="13"/>
+        <v>29403</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="14"/>
+        <v>5.4889377261566867</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="15"/>
+        <v>39056679.102848783</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="13"/>
+        <v>29646</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="14"/>
+        <v>5.4930614433405482</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="15"/>
+        <v>39571893.790473558</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="13"/>
+        <v>29890</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="14"/>
+        <v>5.4971682252932021</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="15"/>
+        <v>40091727.413979374</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="13"/>
+        <v>30135</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="14"/>
+        <v>5.5012582105447274</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="15"/>
+        <v>40616201.962817512</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="13"/>
+        <v>30381</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="14"/>
+        <v>5.5053315359323625</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="15"/>
+        <v>41145339.438717633</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="13"/>
+        <v>30628</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="14"/>
+        <v>5.5093883366279774</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="15"/>
+        <v>41679161.855637699</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="13"/>
+        <v>30876</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="14"/>
+        <v>5.5134287461649825</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="15"/>
+        <v>42217691.239714317</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="13"/>
+        <v>31125</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="14"/>
+        <v>5.5174528964647074</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="15"/>
+        <v>42760949.629213542</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="13"/>
+        <v>31375</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="14"/>
+        <v>5.521460917862246</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="15"/>
+        <v>43308959.074481994</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="13"/>
+        <v>31626</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="14"/>
+        <v>5.5254529391317835</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="15"/>
+        <v>43861741.63789843</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="13"/>
+        <v>31878</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="14"/>
+        <v>5.5294290875114234</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="15"/>
+        <v>44419319.393825665</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253">
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="13"/>
+        <v>32131</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="14"/>
+        <v>5.5333894887275203</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="15"/>
+        <v>44981714.428562902</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254">
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="13"/>
+        <v>32385</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="14"/>
+        <v>5.5373342670185366</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="15"/>
+        <v>45548948.840298407</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255">
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="13"/>
+        <v>32640</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="14"/>
+        <v>5.5412635451584258</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="15"/>
+        <v>46121044.739062607</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256">
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="13"/>
+        <v>32896</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="14"/>
+        <v>5.5451774444795623</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="15"/>
+        <v>46698024.246681519</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257">
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="13"/>
+        <v>33153</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="14"/>
+        <v>5.5490760848952201</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="15"/>
+        <v>47279909.496730529</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <f t="shared" si="13"/>
+        <v>33411</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="14"/>
+        <v>5.5529595849216173</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="15"/>
+        <v>47866722.634488568</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <f t="shared" ref="B259:B300" si="16">(POWER(A259,2) + A259) / 2</f>
+        <v>33670</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="14"/>
+        <v>5.5568280616995374</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="15"/>
+        <v>48458485.816892669</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <f t="shared" si="16"/>
+        <v>33930</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="14"/>
+        <v>5.5606816310155276</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="15"/>
+        <v>49055221.212492779</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="16"/>
+        <v>34191</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="14"/>
+        <v>5.5645204073226937</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="15"/>
+        <v>49656951.001407027</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262">
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="16"/>
+        <v>34453</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="14"/>
+        <v>5.5683445037610966</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="15"/>
+        <v>50263697.375277236</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263">
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="16"/>
+        <v>34716</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="14"/>
+        <v>5.5721540321777647</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="15"/>
+        <v>50875482.537224904</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="16"/>
+        <v>34980</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="14"/>
+        <v>5.575949103146316</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="15"/>
+        <v>51492328.70180735</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265">
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="16"/>
+        <v>35245</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="14"/>
+        <v>5.579729825986222</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="15"/>
+        <v>52114258.094974361</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266">
+        <v>266</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="16"/>
+        <v>35511</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="14"/>
+        <v>5.5834963087816991</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="15"/>
+        <v>52741292.954025082</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267">
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="16"/>
+        <v>35778</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="14"/>
+        <v>5.5872486584002496</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="15"/>
+        <v>53373455.527565181</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268">
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="16"/>
+        <v>36046</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="14"/>
+        <v>5.5909869805108565</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="15"/>
+        <v>54010768.07546448</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269">
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="16"/>
+        <v>36315</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="14"/>
+        <v>5.5947113796018391</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="15"/>
+        <v>54653252.868814774</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="16"/>
+        <v>36585</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="14"/>
+        <v>5.598421958998375</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="15"/>
+        <v>55300932.189888</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="16"/>
+        <v>36856</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="14"/>
+        <v>5.602118820879701</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="15"/>
+        <v>55953828.332094751</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="16"/>
+        <v>37128</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="14"/>
+        <v>5.6058020662959978</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="15"/>
+        <v>56611963.599943087</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="16"/>
+        <v>37401</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="14"/>
+        <v>5.6094717951849598</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="15"/>
+        <v>57275360.308997564</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="16"/>
+        <v>37675</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="14"/>
+        <v>5.6131281063880705</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="15"/>
+        <v>57944040.785838731</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="16"/>
+        <v>37950</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="14"/>
+        <v>5.6167710976665717</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="15"/>
+        <v>58618027.368022762</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="16"/>
+        <v>38226</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="14"/>
+        <v>5.6204008657171496</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="15"/>
+        <v>59297342.404041439</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="16"/>
+        <v>38503</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="14"/>
+        <v>5.6240175061873385</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="15"/>
+        <v>59982008.25328251</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="16"/>
+        <v>38781</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="14"/>
+        <v>5.6276211136906369</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="15"/>
+        <v>60672047.285990171</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="16"/>
+        <v>39060</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="14"/>
+        <v>5.6312117818213654</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="15"/>
+        <v>61367481.88322597</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="16"/>
+        <v>39340</v>
+      </c>
+      <c r="C280">
+        <f t="shared" ref="C280:C300" si="17">LN(A280)</f>
+        <v>5.6347896031692493</v>
+      </c>
+      <c r="D280">
+        <f t="shared" ref="D280:D300" si="18">A280 * B280 * C280</f>
+        <v>62068334.436829917</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="16"/>
+        <v>39621</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="17"/>
+        <v>5.6383546693337454</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="18"/>
+        <v>62774627.349381924</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="16"/>
+        <v>39903</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="17"/>
+        <v>5.6419070709381138</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="18"/>
+        <v>63486383.034163482</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="16"/>
+        <v>40186</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="17"/>
+        <v>5.6454468976432377</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="18"/>
+        <v>64203623.915119596</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="16"/>
+        <v>40470</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="17"/>
+        <v>5.6489742381612063</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="18"/>
+        <v>64926372.42682106</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="16"/>
+        <v>40755</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="17"/>
+        <v>5.6524891802686508</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="18"/>
+        <v>65654651.014426924</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="16"/>
+        <v>41041</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="17"/>
+        <v>5.6559918108198524</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="18"/>
+        <v>66388482.133647263</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="16"/>
+        <v>41328</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="17"/>
+        <v>5.6594822157596214</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="18"/>
+        <v>67127888.250706211</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="16"/>
+        <v>41616</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="17"/>
+        <v>5.6629604801359461</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="18"/>
+        <v>67872891.842305213</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="16"/>
+        <v>41905</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="17"/>
+        <v>5.6664266881124323</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="18"/>
+        <v>68623515.39558658</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="16"/>
+        <v>42195</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="17"/>
+        <v>5.6698809229805196</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="18"/>
+        <v>69379781.408097282</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="16"/>
+        <v>42486</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="17"/>
+        <v>5.6733232671714928</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="18"/>
+        <v>70141712.38775298</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="16"/>
+        <v>42778</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="17"/>
+        <v>5.6767538022682817</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="18"/>
+        <v>70909330.852802306</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="16"/>
+        <v>43071</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="17"/>
+        <v>5.6801726090170677</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="18"/>
+        <v>71682659.331791416</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="16"/>
+        <v>43365</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="17"/>
+        <v>5.6835797673386814</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="18"/>
+        <v>72461720.363528728</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="16"/>
+        <v>43660</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="17"/>
+        <v>5.6869753563398202</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="18"/>
+        <v>73246536.497049987</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="16"/>
+        <v>43956</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="17"/>
+        <v>5.6903594543240601</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="18"/>
+        <v>74037130.291583449</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="16"/>
+        <v>44253</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="17"/>
+        <v>5.6937321388026998</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="18"/>
+        <v>74833524.316515461</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="16"/>
+        <v>44551</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="17"/>
+        <v>5.6970934865054046</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="18"/>
+        <v>75635741.151356086</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="16"/>
+        <v>44850</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="17"/>
+        <v>5.7004435733906869</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="18"/>
+        <v>76443803.385705113</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="16"/>
+        <v>45150</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="17"/>
+        <v>5.7037824746562009</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="18"/>
+        <v>77257733.619218245</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
